--- a/data/outputs/management/69.xlsx
+++ b/data/outputs/management/69.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ54"/>
+  <dimension ref="A1:BR54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -921,6 +926,7 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1134,6 +1140,11 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr">
+        <is>
+          <t>5973399</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1363,6 +1374,11 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr">
+        <is>
+          <t>6007513</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1580,6 +1596,7 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1785,6 +1802,11 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr">
+        <is>
+          <t>6258789</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1998,6 +2020,11 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr">
+        <is>
+          <t>4998666</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2215,6 +2242,7 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2416,6 +2444,7 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2641,6 +2670,11 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr">
+        <is>
+          <t>4264363</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2838,6 +2872,7 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3047,6 +3082,11 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr">
+        <is>
+          <t>4823898</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3256,6 +3296,11 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr">
+        <is>
+          <t>4832752</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3469,6 +3514,11 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr">
+        <is>
+          <t>4773959</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3682,6 +3732,7 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3887,6 +3938,11 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr">
+        <is>
+          <t>57867590</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4080,6 +4136,7 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4285,6 +4342,7 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4482,6 +4540,11 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr">
+        <is>
+          <t>4384514</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4691,6 +4754,7 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4912,6 +4976,7 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5133,6 +5198,11 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr">
+        <is>
+          <t>4067988</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5354,6 +5424,11 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr">
+        <is>
+          <t>4078598</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5563,6 +5638,7 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5776,6 +5852,7 @@
         </is>
       </c>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5985,6 +6062,7 @@
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6206,6 +6284,7 @@
         </is>
       </c>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6419,6 +6498,7 @@
         </is>
       </c>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6624,6 +6704,11 @@
         </is>
       </c>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr">
+        <is>
+          <t>4056469</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6829,6 +6914,11 @@
         </is>
       </c>
       <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr">
+        <is>
+          <t>3030529</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7042,6 +7132,11 @@
         </is>
       </c>
       <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr">
+        <is>
+          <t>4115997</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7263,6 +7358,11 @@
         </is>
       </c>
       <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr">
+        <is>
+          <t>3855924</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7484,6 +7584,11 @@
         </is>
       </c>
       <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr">
+        <is>
+          <t>3075539</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7697,6 +7802,11 @@
         </is>
       </c>
       <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr">
+        <is>
+          <t>3859693</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7910,6 +8020,11 @@
         </is>
       </c>
       <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr">
+        <is>
+          <t>3745978</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8127,6 +8242,11 @@
         </is>
       </c>
       <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr">
+        <is>
+          <t>48902121</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8348,6 +8468,11 @@
         </is>
       </c>
       <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr">
+        <is>
+          <t>3885381</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8553,6 +8678,7 @@
         </is>
       </c>
       <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8766,6 +8892,7 @@
         </is>
       </c>
       <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8975,6 +9102,7 @@
         </is>
       </c>
       <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9061,7 +9189,7 @@
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>Bode, Christoph/0000-0001-5006-5804; Wagner, Stephan M/0000-0003-0471-5663; </t>
+          <t>Bode, Christoph/0000-0001-5006-5804; Wagner, Stephan M/0000-0003-0471-5663;</t>
         </is>
       </c>
       <c r="AB41" t="inlineStr"/>
@@ -9188,6 +9316,11 @@
         </is>
       </c>
       <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr">
+        <is>
+          <t>3065733</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9393,6 +9526,11 @@
         </is>
       </c>
       <c r="BQ42" t="inlineStr"/>
+      <c r="BR42" t="inlineStr">
+        <is>
+          <t>3223609</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9610,6 +9748,11 @@
         </is>
       </c>
       <c r="BQ43" t="inlineStr"/>
+      <c r="BR43" t="inlineStr">
+        <is>
+          <t>2792286</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9815,6 +9958,7 @@
         </is>
       </c>
       <c r="BQ44" t="inlineStr"/>
+      <c r="BR44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10024,6 +10168,7 @@
         </is>
       </c>
       <c r="BQ45" t="inlineStr"/>
+      <c r="BR45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10233,6 +10378,11 @@
         </is>
       </c>
       <c r="BQ46" t="inlineStr"/>
+      <c r="BR46" t="inlineStr">
+        <is>
+          <t>9909072</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10422,6 +10572,7 @@
         </is>
       </c>
       <c r="BQ47" t="inlineStr"/>
+      <c r="BR47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10631,6 +10782,11 @@
         </is>
       </c>
       <c r="BQ48" t="inlineStr"/>
+      <c r="BR48" t="inlineStr">
+        <is>
+          <t>4095258</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10844,6 +11000,7 @@
         </is>
       </c>
       <c r="BQ49" t="inlineStr"/>
+      <c r="BR49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11049,6 +11206,7 @@
         </is>
       </c>
       <c r="BQ50" t="inlineStr"/>
+      <c r="BR50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11258,6 +11416,7 @@
         </is>
       </c>
       <c r="BQ51" t="inlineStr"/>
+      <c r="BR51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11463,6 +11622,11 @@
         </is>
       </c>
       <c r="BQ52" t="inlineStr"/>
+      <c r="BR52" t="inlineStr">
+        <is>
+          <t>2940243</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11676,6 +11840,7 @@
         </is>
       </c>
       <c r="BQ53" t="inlineStr"/>
+      <c r="BR53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11885,6 +12050,7 @@
         </is>
       </c>
       <c r="BQ54" t="inlineStr"/>
+      <c r="BR54" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
